--- a/Applications to text.xlsx
+++ b/Applications to text.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iima1-my.sharepoint.com/personal/p21saigaurav_iima_ac_in/Documents/Desktop/IIMA/Term 4/WwN/CODES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2059" documentId="8_{0FA4E6BB-5AB9-4195-A8A2-E4841D27BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91CED455-2A69-4B95-8AEB-92B36A2202F3}"/>
+  <xr:revisionPtr revIDLastSave="2532" documentId="8_{0FA4E6BB-5AB9-4195-A8A2-E4841D27BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25EB95CB-6E77-46A5-9873-3983DBA983A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{DE8C1A43-0054-4F65-A7E4-36016EAE55C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="615" firstSheet="4" activeTab="5" xr2:uid="{DE8C1A43-0054-4F65-A7E4-36016EAE55C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Staff allocation" sheetId="2" r:id="rId1"/>
-    <sheet name="Line inspection" sheetId="1" r:id="rId2"/>
-    <sheet name="Node to edge costs" sheetId="3" r:id="rId3"/>
+    <sheet name="Node to edge costs" sheetId="3" r:id="rId1"/>
+    <sheet name="Staff allocation" sheetId="2" r:id="rId2"/>
+    <sheet name="Line inspection" sheetId="1" r:id="rId3"/>
     <sheet name="Max cardinality matching" sheetId="4" r:id="rId4"/>
     <sheet name="Creating committees" sheetId="5" r:id="rId5"/>
     <sheet name="Preemption scheduling" sheetId="6" r:id="rId6"/>
@@ -23,6 +23,9 @@
     <sheet name="Min s_t cut 1" sheetId="8" r:id="rId8"/>
     <sheet name="Min s_t cut 2" sheetId="9" r:id="rId9"/>
     <sheet name="Min cost flow" sheetId="10" r:id="rId10"/>
+    <sheet name="Transport 1" sheetId="11" r:id="rId11"/>
+    <sheet name="optimality check" sheetId="12" r:id="rId12"/>
+    <sheet name="rough" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'Min s_t cut 1'!$C$15:$J$22,'Min s_t cut 1'!$C$26:$J$26</definedName>
@@ -118,7 +121,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -140,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
   <si>
     <t>stage</t>
   </si>
@@ -304,15 +307,9 @@
     <t>make max limit = 1</t>
   </si>
   <si>
-    <t>corresponding to a day</t>
-  </si>
-  <si>
     <t>make max limit = 2</t>
   </si>
   <si>
-    <t>corresponding to 2 days</t>
-  </si>
-  <si>
     <t>day out capacities (from node 11) is twice the original</t>
   </si>
   <si>
@@ -440,6 +437,60 @@
   </si>
   <si>
     <t>INCOMPLETE</t>
+  </si>
+  <si>
+    <t>S | D</t>
+  </si>
+  <si>
+    <t>supply cap</t>
+  </si>
+  <si>
+    <t>demand cap</t>
+  </si>
+  <si>
+    <t>repeat start/supply nodes by demand_count =&gt;</t>
+  </si>
+  <si>
+    <t>supply nodes</t>
+  </si>
+  <si>
+    <t>demand nodes</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>solution (x)</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>All x &gt; 0</t>
+  </si>
+  <si>
+    <t>DUAL</t>
+  </si>
+  <si>
+    <t>2 parallel machines and job on both machines</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>job index</t>
+  </si>
+  <si>
+    <t>corresponding to phase period</t>
   </si>
 </sst>
 </file>
@@ -792,1267 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7387BE7-B024-4AE4-AF50-A8056A69F7A4}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1">
-        <f>MAX(B4:B6)+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" cm="1">
-        <f t="array" ref="A4:A6">_xlfn.SEQUENCE(B1)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f>$F$1-B4</f>
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C6" si="0">$F$1-B5</f>
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <f>SUM(C4:C6)+2</f>
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366D1C6-DCB9-43FC-A17E-B7B6C88A7308}">
-  <dimension ref="B1:U32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-      <c r="S6">
-        <v>6</v>
-      </c>
-      <c r="T6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>IF(C14=0, 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7:T7" si="0">IF(D14=0, 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>IF(L7=$M$2, $P$2, IF(L7=$M$3, $P$2, 0))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M14" si="1">IF(C15=0, 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8:N14" si="2">IF(D15=0, 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:O14" si="3">IF(E15=0, 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ref="P8:P14" si="4">IF(F15=0, 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ref="Q8:Q14" si="5">IF(G15=0, 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" ref="R8:R14" si="6">IF(H15=0, 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ref="S8:S14" si="7">IF(I15=0, 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <f t="shared" ref="T8:T14" si="8">IF(J15=0, 0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" ref="U8:U14" si="9">IF(L8=$M$2, $P$2, IF(L8=$M$3, $P$2, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="R16">
-        <v>5</v>
-      </c>
-      <c r="S16">
-        <v>6</v>
-      </c>
-      <c r="T16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>6</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB71D028-9909-4EA7-87AC-3345EF4FE6FC}">
-  <dimension ref="A1:N19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>0.15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>25</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>$B$6</f>
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>M2*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f>$B$6*(1-SUM($C$2:C2))</f>
-        <v>85</v>
-      </c>
-      <c r="M3">
-        <f>SUM($B$2:B2)</f>
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N5" si="0">M3*-1</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <f>$B$6*(1-SUM($C$2:C3))</f>
-        <v>75</v>
-      </c>
-      <c r="M4">
-        <f>SUM($B$2:B3)</f>
-        <v>250</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <f>$B$6*(1-SUM($C$2:C4))</f>
-        <v>70</v>
-      </c>
-      <c r="M5">
-        <f>SUM($B$2:B4)</f>
-        <v>300</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f ca="1">(INDEX($M$2:$M$5,MATCH(E$7,$K$2:$K$5,0)) + INDEX($N$2:$N$5,MATCH($C8,$K$2:$K$5,0)) +  OFFSET($F$2, $C8, E$7))*INDEX($L$2:$L$5, MATCH($C8, $K$2:$K$5, 0))</f>
-        <v>11000</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:G11" ca="1" si="1">(INDEX($M$2:$M$5,MATCH(F$7,$K$2:$K$5,0)) + INDEX($N$2:$N$5,MATCH($C8,$K$2:$K$5,0)) +  OFFSET($F$2, $C8, F$7))*INDEX($L$2:$L$5, MATCH($C8, $K$2:$K$5, 0))</f>
-        <v>27500</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9" ca="1" si="2">(INDEX($M$2:$M$5,MATCH(E$7,$K$2:$K$5,0)) + INDEX($N$2:$N$5,MATCH($C9,$K$2:$K$5,0)) +  OFFSET($F$2, $C9, E$7))*INDEX($L$2:$L$5, MATCH($C9, $K$2:$K$5, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>13770</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>18275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <f>COUNT(K14:K19)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <f ca="1">E8</f>
-        <v>11000</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <f ca="1">F8</f>
-        <v>27500</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <f ca="1">G8</f>
-        <v>33000</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <f ca="1">F9</f>
-        <v>13770</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <f ca="1">G9</f>
-        <v>18275</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <f ca="1">G10</f>
-        <v>4575</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3A9948-C875-4104-B091-DAFDF8F99EDA}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,12 +1414,2703 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366D1C6-DCB9-43FC-A17E-B7B6C88A7308}">
+  <dimension ref="B1:U32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>IF(C14=0, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:T7" si="0">IF(D14=0, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>IF(L7=$M$2, $P$2, IF(L7=$M$3, $P$2, 0))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M14" si="1">IF(C15=0, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N14" si="2">IF(D15=0, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O14" si="3">IF(E15=0, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P14" si="4">IF(F15=0, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q14" si="5">IF(G15=0, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R14" si="6">IF(H15=0, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S14" si="7">IF(I15=0, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T14" si="8">IF(J15=0, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U14" si="9">IF(L8=$M$2, $P$2, IF(L8=$M$3, $P$2, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6546FD7-29E0-41C6-994D-926E8E31FBE7}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" ref="B1:D1">_xlfn.SEQUENCE(1, B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1">
+        <f>B11+B12+2</f>
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <f>B11*B12+B11+B12</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A4">_xlfn.SEQUENCE(B11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:H4">0*_xlfn.SEQUENCE(B12)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2:I4">_xlfn.SEQUENCE(B12)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>F3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>F4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>H2+1</f>
+        <v>1</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5:I7">_xlfn.SEQUENCE(B12)+B12</f>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f ca="1">OFFSET($A$1,H5,I5-$B$11)</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f>$B$14</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H13" si="0">H3+1</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J13" ca="1" si="1">OFFSET($A$1,H6,I6-$B$11)</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K13" si="2">$B$14</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8:I10">_xlfn.SEQUENCE(B12)+B12</f>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11:I13">_xlfn.SEQUENCE(B12)+B12</f>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>100000</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14:H16">_xlfn.SEQUENCE(B12)+B11</f>
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14:K16">TRANSPOSE(B6:D6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25090EDA-4FE4-4C5F-AAF6-FBD905FE7C50}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" ref="B1:D1">_xlfn.SEQUENCE(1, B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A4">_xlfn.SEQUENCE(B11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <f>SUMPRODUCT(B2:D4,B15:D17)</f>
+        <v>7575</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>SUM(B15:D15)</f>
+        <v>125</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <f>F2</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" ref="B23:B24" si="0">SUM(B16:D16)</f>
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D24" si="1">F3</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>SUM(B15:B17)</f>
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <f>B6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>SUM(C15:C17)</f>
+        <v>175</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <f>C6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f>SUM(D15:D17)</f>
+        <v>200</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <f>D6</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A67A914-F1B3-4FDF-B188-2EC4E86FA79B}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="H1">
+        <v>17</v>
+      </c>
+      <c r="I1">
+        <f>COUNT(H2:H39)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>I3+1</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I11" si="0">I4+1</f>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>-2120</v>
+      </c>
+      <c r="K12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>-4340</v>
+      </c>
+      <c r="K14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>H14+1</f>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>-3200</v>
+      </c>
+      <c r="K16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" ref="H17:H31" si="1">H15+1</f>
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>-4950</v>
+      </c>
+      <c r="K18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>-1795</v>
+      </c>
+      <c r="K20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>-2300</v>
+      </c>
+      <c r="K22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>-3005</v>
+      </c>
+      <c r="K24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>-1530</v>
+      </c>
+      <c r="K26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>-2130</v>
+      </c>
+      <c r="K28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>-2350</v>
+      </c>
+      <c r="K30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f>I36</f>
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <f>H37+1</f>
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" ref="H38:H39" si="2">I37</f>
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:I39" si="3">H38+1</f>
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7387BE7-B024-4AE4-AF50-A8056A69F7A4}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1">
+        <f>MAX(B4:B6)+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" cm="1">
+        <f t="array" ref="A4:A6">_xlfn.SEQUENCE(B1)</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>$F$1-B4</f>
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">$F$1-B5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C4:C6)+2</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB71D028-9909-4EA7-87AC-3345EF4FE6FC}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>$B$6</f>
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>M2*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>$B$6*(1-SUM($C$2:C2))</f>
+        <v>85</v>
+      </c>
+      <c r="M3">
+        <f>SUM($B$2:B2)</f>
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N5" si="0">M3*-1</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>$B$6*(1-SUM($C$2:C3))</f>
+        <v>75</v>
+      </c>
+      <c r="M4">
+        <f>SUM($B$2:B3)</f>
+        <v>250</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f>$B$6*(1-SUM($C$2:C4))</f>
+        <v>70</v>
+      </c>
+      <c r="M5">
+        <f>SUM($B$2:B4)</f>
+        <v>300</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f ca="1">(INDEX($M$2:$M$5,MATCH(E$7,$K$2:$K$5,0)) + INDEX($N$2:$N$5,MATCH($C8,$K$2:$K$5,0)) +  OFFSET($F$2, $C8, E$7))*INDEX($L$2:$L$5, MATCH($C8, $K$2:$K$5, 0))</f>
+        <v>11000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:G11" ca="1" si="1">(INDEX($M$2:$M$5,MATCH(F$7,$K$2:$K$5,0)) + INDEX($N$2:$N$5,MATCH($C8,$K$2:$K$5,0)) +  OFFSET($F$2, $C8, F$7))*INDEX($L$2:$L$5, MATCH($C8, $K$2:$K$5, 0))</f>
+        <v>27500</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" ca="1" si="2">(INDEX($M$2:$M$5,MATCH(E$7,$K$2:$K$5,0)) + INDEX($N$2:$N$5,MATCH($C9,$K$2:$K$5,0)) +  OFFSET($F$2, $C9, E$7))*INDEX($L$2:$L$5, MATCH($C9, $K$2:$K$5, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>13770</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>18275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f>COUNT(K14:K19)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f ca="1">E8</f>
+        <v>11000</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f ca="1">F8</f>
+        <v>27500</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f ca="1">G8</f>
+        <v>33000</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f ca="1">F9</f>
+        <v>13770</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <f ca="1">G9</f>
+        <v>18275</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <f ca="1">G10</f>
+        <v>4575</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAACAB4-9D41-4C48-B7A9-51EDB1C042B0}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3497,39 +4983,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FEEE44-2102-43CF-A291-2243BFACD17C}">
-  <dimension ref="A2:Q24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
       <c r="J2">
-        <f>COUNT(I3:I24)</f>
-        <v>22</v>
+        <f>COUNT(I3:I27)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,19 +5043,19 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3559,11 +5065,11 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3:L7">TRANSPOSE(B4:F4)</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
@@ -3574,20 +5080,20 @@
         <v>46</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>1.5</v>
       </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-      <c r="D4">
-        <v>1.5</v>
-      </c>
-      <c r="E4">
-        <v>2.6</v>
-      </c>
-      <c r="F4">
-        <v>2.1</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -3595,16 +5101,16 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,19 +5118,19 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3633,13 +5139,13 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,10 +5156,10 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,10 +5182,10 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +5193,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <f>B8</f>
@@ -3701,17 +5207,17 @@
       </c>
       <c r="J8">
         <f>C8+5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>$F$15</f>
-        <v>10</v>
+        <f>INDEX($F$8:$F$12, MATCH(C8, $E$8:$E$12, 0))</f>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,66 +5225,66 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I19" si="0">B9</f>
+        <f t="shared" ref="I9:I22" si="0">B9</f>
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J19" si="1">C9+5</f>
-        <v>8</v>
+        <f t="shared" ref="J9:J22" si="1">C9+5</f>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L19" si="2">$F$15</f>
-        <v>10</v>
+        <f t="shared" ref="L9:L22" si="2">INDEX($F$8:$F$12, MATCH(C9, $E$8:$E$12, 0))</f>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +5292,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -3800,22 +5306,22 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -3825,116 +5331,116 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -3942,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -3950,136 +5456,241 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>-1000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I20" cm="1">
-        <f t="array" ref="I20:I24">_xlfn.SEQUENCE(5)+5</f>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>-3000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f>F8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I21">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>-4000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J21">
-        <v>11</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ref="L21:L24" si="3">F9</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I22">
-        <v>8</v>
-      </c>
-      <c r="J22">
-        <v>11</v>
-      </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I23">
-        <v>9</v>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>-1500</v>
+      </c>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23:I27">_xlfn.SEQUENCE(5)+5</f>
+        <v>6</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>F8*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>-2000</v>
+      </c>
       <c r="I24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>11</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
+        <f t="shared" ref="L24:L27" si="3">F9*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4092,35 +5703,35 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <f>C24+2</f>
@@ -4133,7 +5744,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -4175,7 +5786,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -4218,7 +5829,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -4261,7 +5872,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -4304,7 +5915,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -4347,7 +5958,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -4404,7 +6015,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -4495,7 +6106,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -4582,13 +6193,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
@@ -4606,7 +6217,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4630,7 +6241,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <f>B19+2</f>
@@ -4656,7 +6267,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:B24" si="8">B20+2</f>
@@ -4681,7 +6292,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <f t="shared" si="8"/>
@@ -4706,7 +6317,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <f t="shared" si="8"/>
@@ -4731,7 +6342,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <f t="shared" si="8"/>
@@ -4763,7 +6374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393D2CD-809A-4FCA-B231-719FBB99240C}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -4771,18 +6382,18 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M2">
         <f>SUMPRODUCT(C4:J11, C15:J22)</f>
@@ -4791,7 +6402,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4818,10 +6429,10 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -4838,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M4">
         <f ca="1">SUMPRODUCT(C4:J11, C15:J22) + O4*OFFSET(B14, M7+1, M6+1)</f>
@@ -4867,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4881,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -4909,14 +6520,14 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9">
         <f ca="1">OFFSET(L14, M6+1, M7+1)</f>
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -4933,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -4941,14 +6552,14 @@
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M11">
         <f ca="1" xml:space="preserve"> OFFSET(B14, M7+1, M6+1) + M9</f>
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -4956,7 +6567,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4983,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -5524,7 +7135,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5551,7 +7162,7 @@
         <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5915,18 +7526,18 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M2">
         <f>SUMPRODUCT(C4:H9, C15:H20)</f>
@@ -5935,7 +7546,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5956,10 +7567,10 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -5973,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M4" s="2">
         <f ca="1">SUMPRODUCT(C4:H9, C15:H20) + O4*OFFSET(B14, M7+1, M6+1)</f>
@@ -6002,7 +7613,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -6016,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -6035,14 +7646,14 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9">
         <f ca="1">OFFSET(L14, M6+1, M7+1)</f>
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -6050,19 +7661,19 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M11">
         <f ca="1" xml:space="preserve"> OFFSET(B14, M7+1, M6+1) + M9</f>
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -6070,7 +7681,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6091,7 +7702,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -6138,27 +7749,27 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <f>INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
+        <f t="shared" ref="M15:R20" si="0">INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>INDEX($C$24:$H$24, MATCH(N$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>INDEX($C$24:$H$24, MATCH(O$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P15">
-        <f>INDEX($C$24:$H$24, MATCH(P$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>INDEX($C$24:$H$24, MATCH(Q$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R15">
-        <f>INDEX($C$24:$H$24, MATCH(R$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6188,27 +7799,27 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <f>INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L16, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>INDEX($C$24:$H$24, MATCH(N$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L16, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>INDEX($C$24:$H$24, MATCH(O$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L16, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P16">
-        <f>INDEX($C$24:$H$24, MATCH(P$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L16, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>INDEX($C$24:$H$24, MATCH(Q$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L16, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R16">
-        <f>INDEX($C$24:$H$24, MATCH(R$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L16, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6238,27 +7849,27 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <f>INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L17, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="N17">
-        <f>INDEX($C$24:$H$24, MATCH(N$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L17, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="O17">
-        <f>INDEX($C$24:$H$24, MATCH(O$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L17, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>INDEX($C$24:$H$24, MATCH(P$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L17, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>INDEX($C$24:$H$24, MATCH(Q$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L17, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>INDEX($C$24:$H$24, MATCH(R$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L17, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6288,27 +7899,27 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <f>INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L18, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="N18">
-        <f>INDEX($C$24:$H$24, MATCH(N$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L18, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="O18">
-        <f>INDEX($C$24:$H$24, MATCH(O$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L18, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>INDEX($C$24:$H$24, MATCH(P$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L18, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>INDEX($C$24:$H$24, MATCH(Q$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L18, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>INDEX($C$24:$H$24, MATCH(R$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L18, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6338,27 +7949,27 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <f>INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L19, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="N19">
-        <f>INDEX($C$24:$H$24, MATCH(N$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L19, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="O19">
-        <f>INDEX($C$24:$H$24, MATCH(O$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L19, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>INDEX($C$24:$H$24, MATCH(P$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L19, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>INDEX($C$24:$H$24, MATCH(Q$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L19, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>INDEX($C$24:$H$24, MATCH(R$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L19, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6388,33 +7999,33 @@
         <v>5</v>
       </c>
       <c r="M20">
-        <f>INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L20, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="N20">
-        <f>INDEX($C$24:$H$24, MATCH(N$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L20, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="O20">
-        <f>INDEX($C$24:$H$24, MATCH(O$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L20, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>INDEX($C$24:$H$24, MATCH(P$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L20, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>INDEX($C$24:$H$24, MATCH(Q$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L20, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>INDEX($C$24:$H$24, MATCH(R$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L20, $C$23:$H$23, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6435,7 +8046,7 @@
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -6479,27 +8090,27 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f>C15-M15</f>
+        <f t="shared" ref="M24:R29" si="1">C15-M15</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>D15-N15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>E15-O15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>F15-P15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>G15-Q15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f>H15-R15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6508,27 +8119,27 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f>C16-M16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>D16-N16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>E16-O16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>F16-P16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>G16-Q16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>H16-R16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6537,27 +8148,27 @@
         <v>2</v>
       </c>
       <c r="M26">
-        <f>C17-M17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N26">
-        <f>D17-N17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>E17-O17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>F17-P17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>G17-Q17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>H17-R17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6566,27 +8177,27 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <f>C18-M18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N27">
-        <f>D18-N18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>E18-O18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>F18-P18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>G18-Q18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>H18-R18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6595,27 +8206,27 @@
         <v>4</v>
       </c>
       <c r="M28">
-        <f>C19-M19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N28">
-        <f>D19-N19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>E19-O19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>F19-P19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>G19-Q19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>H19-R19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6624,27 +8235,27 @@
         <v>5</v>
       </c>
       <c r="M29">
-        <f>C20-M20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N29">
-        <f>D20-N20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f>E20-O20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>F20-P20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>G20-Q20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>H20-R20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/Applications to text.xlsx
+++ b/Applications to text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iima1-my.sharepoint.com/personal/p21saigaurav_iima_ac_in/Documents/Desktop/IIMA/Term 4/WwN/CODES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2532" documentId="8_{0FA4E6BB-5AB9-4195-A8A2-E4841D27BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25EB95CB-6E77-46A5-9873-3983DBA983A8}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{73E40FE7-DD1C-4BB9-A5EB-2D88122978F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C76F292-0ECE-4392-BFD0-3FF98A44D358}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="615" firstSheet="4" activeTab="5" xr2:uid="{DE8C1A43-0054-4F65-A7E4-36016EAE55C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="615" firstSheet="5" activeTab="7" xr2:uid="{DE8C1A43-0054-4F65-A7E4-36016EAE55C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Node to edge costs" sheetId="3" r:id="rId1"/>
@@ -20,86 +20,120 @@
     <sheet name="Creating committees" sheetId="5" r:id="rId5"/>
     <sheet name="Preemption scheduling" sheetId="6" r:id="rId6"/>
     <sheet name="Logistic operations" sheetId="7" r:id="rId7"/>
-    <sheet name="Min s_t cut 1" sheetId="8" r:id="rId8"/>
-    <sheet name="Min s_t cut 2" sheetId="9" r:id="rId9"/>
-    <sheet name="Min cost flow" sheetId="10" r:id="rId10"/>
-    <sheet name="Transport 1" sheetId="11" r:id="rId11"/>
-    <sheet name="optimality check" sheetId="12" r:id="rId12"/>
-    <sheet name="rough" sheetId="13" r:id="rId13"/>
+    <sheet name="Project transport" sheetId="14" r:id="rId8"/>
+    <sheet name="Min s_t cut 1" sheetId="8" r:id="rId9"/>
+    <sheet name="Min s_t cut 2" sheetId="9" r:id="rId10"/>
+    <sheet name="Min cost flow" sheetId="10" r:id="rId11"/>
+    <sheet name="Transport 1" sheetId="11" r:id="rId12"/>
+    <sheet name="airplane" sheetId="13" r:id="rId13"/>
+    <sheet name="optimality check" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="7" hidden="1">'Min s_t cut 1'!$C$15:$J$22,'Min s_t cut 1'!$C$26:$J$26</definedName>
-    <definedName name="solver_adj" localSheetId="8" hidden="1">'Min s_t cut 2'!$C$15:$H$20,'Min s_t cut 2'!$C$24:$H$24</definedName>
-    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'Min s_t cut 1'!$C$15:$J$22,'Min s_t cut 1'!$C$26:$J$26</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'Min s_t cut 2'!$C$15:$H$20,'Min s_t cut 2'!$C$24:$H$24</definedName>
+    <definedName name="solver_adj" localSheetId="11" hidden="1">'Transport 1'!$B$19:$F$22</definedName>
     <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Min s_t cut 1'!$C$15:$J$22</definedName>
-    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Min s_t cut 2'!$C$15:$H$20</definedName>
-    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Min s_t cut 1'!$M$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Min s_t cut 2'!$M$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'Min s_t cut 1'!$M$26:$T$33</definedName>
-    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Min s_t cut 2'!$M$24:$R$31</definedName>
-    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Min s_t cut 1'!$C$15:$J$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'Min s_t cut 2'!$C$15:$H$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="11" hidden="1">'Transport 1'!$B$23:$E$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Min s_t cut 1'!$M$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'Min s_t cut 2'!$M$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="11" hidden="1">'Transport 1'!$G$19:$G$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Min s_t cut 1'!$M$26:$T$33</definedName>
+    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'Min s_t cut 2'!$M$24:$R$31</definedName>
     <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="7" hidden="1">'Min s_t cut 1'!$M$4</definedName>
-    <definedName name="solver_opt" localSheetId="8" hidden="1">'Min s_t cut 2'!$M$4</definedName>
-    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'Min s_t cut 1'!$M$4</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'Min s_t cut 2'!$M$4</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">'Transport 1'!$I$25</definedName>
     <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="7" hidden="1">5</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="8" hidden="1">5</definedName>
-    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="7" hidden="1">"binary"</definedName>
+    <definedName name="solver_rel3" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="8" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'Min s_t cut 1'!$O$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'Min s_t cut 2'!$O$11</definedName>
-    <definedName name="solver_rhs3" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs1" localSheetId="11" hidden="1">'Transport 1'!$B$25:$E$25</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'Min s_t cut 1'!$O$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'Min s_t cut 2'!$O$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="11" hidden="1">'Transport 1'!$I$19:$I$22</definedName>
     <definedName name="solver_rhs3" localSheetId="8" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rhs3" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="130">
   <si>
     <t>stage</t>
   </si>
@@ -491,6 +525,48 @@
   </si>
   <si>
     <t>corresponding to phase period</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>D_sum</t>
+  </si>
+  <si>
+    <t>S_Sum</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Min cost</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Due date</t>
+  </si>
+  <si>
+    <t>Transit Time</t>
+  </si>
+  <si>
+    <t>Latest start</t>
+  </si>
+  <si>
+    <t>return to A</t>
+  </si>
+  <si>
+    <t>(derivative shipment)</t>
   </si>
 </sst>
 </file>
@@ -1415,6 +1491,796 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102DC9D0-CFC5-494B-B615-ED78A3EE9912}">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2">
+        <f>SUMPRODUCT(C4:H9, C15:H20)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="2">
+        <f ca="1">SUMPRODUCT(C4:H9, C15:H20) + O4*OFFSET(B14, M7+1, M6+1)</f>
+        <v>7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9">
+        <f ca="1">OFFSET(L14, M6+1, M7+1)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11">
+        <f ca="1" xml:space="preserve"> OFFSET(B14, M7+1, M6+1) + M9</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:R20" si="0">INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:R29" si="1">C15-M15</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366D1C6-DCB9-43FC-A17E-B7B6C88A7308}">
   <dimension ref="B1:U32"/>
   <sheetViews>
@@ -2180,17 +3046,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6546FD7-29E0-41C6-994D-926E8E31FBE7}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -2204,383 +3070,714 @@
       <c r="D1">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <f>B11+B12+2</f>
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <f>B11*B12+B11+B12</f>
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A4">_xlfn.SEQUENCE(B11,1)</f>
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f>B2+$B$15</f>
+        <v>1040</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <f>C2+$B$15</f>
+        <v>1080</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="C2:E5" si="0">$B$14</f>
+        <v>100000</v>
       </c>
       <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="H2" cm="1">
-        <f t="array" ref="H2:H4">0*_xlfn.SEQUENCE(B12)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2:I4">_xlfn.SEQUENCE(B12)</f>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <f t="array" ref="I2:I4">0*_xlfn.SEQUENCE(B12)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J4">_xlfn.SEQUENCE(B12)</f>
+        <v>1</v>
       </c>
       <c r="K2">
-        <f>F2</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>G2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <f t="shared" ref="B3:B5" si="1">$B$14</f>
+        <v>100000</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>C3+$B$15</f>
+        <v>1540</v>
+      </c>
+      <c r="E3">
+        <f>D3+$B$15</f>
+        <v>1580</v>
       </c>
       <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <f>F3</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>G3</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>100000</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>1400</v>
+      </c>
+      <c r="E4">
+        <f>D4+$B$15</f>
+        <v>1440</v>
       </c>
       <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>350</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <f>F4</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H5">
-        <f>H2+1</f>
-        <v>1</v>
-      </c>
-      <c r="I5" cm="1">
-        <f t="array" ref="I5:I7">_xlfn.SEQUENCE(B12)+B12</f>
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <f ca="1">OFFSET($A$1,H5,I5-$B$11)</f>
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>G4</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>1500</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <f>I2+1</f>
+        <v>1</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5:J7">_xlfn.SEQUENCE(B12)+B12</f>
+        <v>4</v>
       </c>
       <c r="K5">
+        <f ca="1">OFFSET($A$1,I5,J5-$B$11)</f>
+        <v>1000</v>
+      </c>
+      <c r="L5">
         <f>$B$14</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H13" si="0">H3+1</f>
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <f>SUM(G2:G5)-SUM(B6:E6)</f>
+        <v>350</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <f t="shared" ref="I6:I13" si="2">I3+1</f>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J13" ca="1" si="1">OFFSET($A$1,H6,I6-$B$11)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K13" si="2">$B$14</f>
+        <f t="shared" ref="K6:K13" ca="1" si="3">OFFSET($A$1,I6,J6-$B$11)</f>
+        <v>1040</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L13" si="4">$B$14</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
       <c r="K7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8:J10">_xlfn.SEQUENCE(B12)+B12</f>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="3"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I8" cm="1">
-        <f t="array" ref="I8:I10">_xlfn.SEQUENCE(B12)+B12</f>
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
+      <c r="L8">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>101</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="I9">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="3"/>
+        <v>1540</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I11" cm="1">
-        <f t="array" ref="I11:I13">_xlfn.SEQUENCE(B12)+B12</f>
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11:J13">_xlfn.SEQUENCE(B12)+B12</f>
+        <v>4</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>103</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="I12">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
+      <c r="K13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>
       <c r="B14">
         <v>100000</v>
       </c>
-      <c r="H14" cm="1">
-        <f t="array" ref="H14:H16">_xlfn.SEQUENCE(B12)+B11</f>
-        <v>4</v>
-      </c>
-      <c r="I14">
+      <c r="I14" cm="1">
+        <f t="array" ref="I14:I16">_xlfn.SEQUENCE(B12)+B11</f>
+        <v>4</v>
+      </c>
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" cm="1">
-        <f t="array" ref="K14:K16">TRANSPOSE(B6:D6)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H15">
-        <v>5</v>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14:L16">TRANSPOSE(B6:D6)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
       </c>
       <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
         <v>7</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I16">
         <v>6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>350</v>
+      </c>
+      <c r="C19">
+        <v>149.99999999999997</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>SUM(B19:F19)</f>
+        <v>500</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>350</v>
+      </c>
+      <c r="M19">
+        <v>150</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>250.00000000000003</v>
+      </c>
+      <c r="D20">
+        <v>100.00000000000996</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>149.9999999999863</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G22" si="5">SUM(B20:F20)</f>
+        <v>499.99999999999631</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20">
+        <v>500</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>250.00000000000006</v>
+      </c>
+      <c r="N20">
+        <v>100.00000000000011</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>149.99999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>350</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21">
+        <v>350</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="N21">
+        <v>349.99999999999994</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>8.4403287537002889</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>208.4403287537003</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22">
+        <v>400</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>117</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <f>SUM(B19:B22)</f>
+        <v>350</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <f t="shared" ref="C23:F23" si="6">SUM(C19:C22)</f>
+        <v>400</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>450.00000000000995</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>158.4403287536866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>350</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <v>450</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>350</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25">
+        <f>SUMPRODUCT(B2:F5, B19:F22)</f>
+        <v>1825000.0000000154</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +3785,2098 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A67A914-F1B3-4FDF-B188-2EC4E86FA79B}">
+  <dimension ref="A1:AD39"/>
+  <sheetViews>
+    <sheetView topLeftCell="M19" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="H1">
+        <v>17</v>
+      </c>
+      <c r="I1">
+        <f>COUNT(H2:H39)</f>
+        <v>38</v>
+      </c>
+      <c r="N1">
+        <v>17</v>
+      </c>
+      <c r="O1">
+        <f>COUNT(N2:N39)</f>
+        <v>38</v>
+      </c>
+      <c r="V1">
+        <v>17</v>
+      </c>
+      <c r="W1">
+        <f>COUNT(V2:V39)</f>
+        <v>38</v>
+      </c>
+      <c r="AA1">
+        <v>12</v>
+      </c>
+      <c r="AB1">
+        <f>COUNT(AA2:AA25)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>150</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>O2+1</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>120</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>W2+1</f>
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>I3+1</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>O3+1</f>
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>140</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>W3+1</f>
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>140</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I11" si="0">I4+1</f>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O11" si="1">O4+1</f>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>75</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W11" si="2">W4+1</f>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>75</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>140</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>120</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>150</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>150</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>110</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>-4100</v>
+      </c>
+      <c r="AD8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>50</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>45</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>AA8+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>-5200</v>
+      </c>
+      <c r="AD10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>110</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" ref="AA11:AA19" si="3">AA9+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>-2120</v>
+      </c>
+      <c r="K12">
+        <v>10000</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>-4100</v>
+      </c>
+      <c r="Q12">
+        <v>10000</v>
+      </c>
+      <c r="S12">
+        <v>60</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>11</v>
+      </c>
+      <c r="X12">
+        <v>-4100</v>
+      </c>
+      <c r="Y12">
+        <v>10000</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <v>-5900</v>
+      </c>
+      <c r="AD12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>10000</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10000</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>10000</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>-4340</v>
+      </c>
+      <c r="K14">
+        <v>10000</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>-8310</v>
+      </c>
+      <c r="Q14">
+        <v>10000</v>
+      </c>
+      <c r="S14">
+        <v>120</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <v>-8310</v>
+      </c>
+      <c r="Y14">
+        <v>10000</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>8</v>
+      </c>
+      <c r="AC14">
+        <v>-3500</v>
+      </c>
+      <c r="AD14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>10000</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10000</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>10000</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>H14+1</f>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>-3200</v>
+      </c>
+      <c r="K16">
+        <v>10000</v>
+      </c>
+      <c r="N16">
+        <f>N14+1</f>
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>-5200</v>
+      </c>
+      <c r="Q16">
+        <v>10000</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>V14+1</f>
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>11</v>
+      </c>
+      <c r="X16">
+        <v>-5200</v>
+      </c>
+      <c r="Y16">
+        <v>10000</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB16">
+        <v>8</v>
+      </c>
+      <c r="AC16">
+        <v>-7100</v>
+      </c>
+      <c r="AD16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" ref="H17:H31" si="4">H15+1</f>
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>10000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N31" si="5">N15+1</f>
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10000</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V31" si="6">V15+1</f>
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>14</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>10000</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>-4950</v>
+      </c>
+      <c r="K18">
+        <v>10000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <v>-5900</v>
+      </c>
+      <c r="Q18">
+        <v>10000</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>11</v>
+      </c>
+      <c r="X18">
+        <v>-5900</v>
+      </c>
+      <c r="Y18">
+        <v>10000</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AB18">
+        <v>9</v>
+      </c>
+      <c r="AC18">
+        <v>-2000</v>
+      </c>
+      <c r="AD18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>10000</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10000</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>15</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>10000</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <v>10</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>-1795</v>
+      </c>
+      <c r="K20">
+        <v>10000</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>-5900</v>
+      </c>
+      <c r="Q20">
+        <v>10000</v>
+      </c>
+      <c r="S20">
+        <v>25</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>12</v>
+      </c>
+      <c r="X20">
+        <v>-5900</v>
+      </c>
+      <c r="Y20">
+        <v>10000</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>11</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10000</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10000</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>13</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>10000</v>
+      </c>
+      <c r="AA21">
+        <v>9</v>
+      </c>
+      <c r="AB21">
+        <v>11</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>-2300</v>
+      </c>
+      <c r="K22">
+        <v>10000</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>12</v>
+      </c>
+      <c r="P22">
+        <v>-3500</v>
+      </c>
+      <c r="Q22">
+        <v>10000</v>
+      </c>
+      <c r="S22">
+        <v>15</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>12</v>
+      </c>
+      <c r="X22">
+        <v>-3500</v>
+      </c>
+      <c r="Y22">
+        <v>10000</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>11</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>10000</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10000</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="W23">
+        <v>14</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>10000</v>
+      </c>
+      <c r="AA23">
+        <v>7</v>
+      </c>
+      <c r="AB23">
+        <f>AA23+1</f>
+        <v>8</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>-3005</v>
+      </c>
+      <c r="K24">
+        <v>10000</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <v>-7100</v>
+      </c>
+      <c r="Q24">
+        <v>10000</v>
+      </c>
+      <c r="S24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>12</v>
+      </c>
+      <c r="X24">
+        <v>-7100</v>
+      </c>
+      <c r="Y24">
+        <v>10000</v>
+      </c>
+      <c r="AA24">
+        <f>AB23</f>
+        <v>8</v>
+      </c>
+      <c r="AB24">
+        <f>AA24+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>10000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>15</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10000</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>15</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>10000</v>
+      </c>
+      <c r="AA25">
+        <v>9</v>
+      </c>
+      <c r="AB25">
+        <v>10</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>-1530</v>
+      </c>
+      <c r="K26">
+        <v>10000</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>-4500</v>
+      </c>
+      <c r="Q26">
+        <v>10000</v>
+      </c>
+      <c r="S26">
+        <v>50</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="W26">
+        <v>13</v>
+      </c>
+      <c r="X26">
+        <v>-4500</v>
+      </c>
+      <c r="Y26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>10000</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>10000</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>14</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>-2130</v>
+      </c>
+      <c r="K28">
+        <v>10000</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <v>-5400</v>
+      </c>
+      <c r="Q28">
+        <v>10000</v>
+      </c>
+      <c r="S28">
+        <v>45</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="W28">
+        <v>13</v>
+      </c>
+      <c r="X28">
+        <v>-5400</v>
+      </c>
+      <c r="Y28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>10000</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>10000</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="W29">
+        <v>15</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>-2350</v>
+      </c>
+      <c r="K30">
+        <v>10000</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>14</v>
+      </c>
+      <c r="P30">
+        <v>-2000</v>
+      </c>
+      <c r="Q30">
+        <v>10000</v>
+      </c>
+      <c r="S30">
+        <v>20</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>14</v>
+      </c>
+      <c r="X30">
+        <v>-2000</v>
+      </c>
+      <c r="Y30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>10000</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>10000</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>15</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="8:30" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>80</v>
+      </c>
+      <c r="N32">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>150</v>
+      </c>
+      <c r="T32">
+        <f>SUM(S12:S30)</f>
+        <v>355</v>
+      </c>
+      <c r="V32">
+        <v>12</v>
+      </c>
+      <c r="W32">
+        <v>16</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>240</v>
+      </c>
+      <c r="N33">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>145</v>
+      </c>
+      <c r="V33">
+        <v>13</v>
+      </c>
+      <c r="W33">
+        <v>16</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>290</v>
+      </c>
+      <c r="N34">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>16</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>340</v>
+      </c>
+      <c r="V34">
+        <v>14</v>
+      </c>
+      <c r="W34">
+        <v>16</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>360</v>
+      </c>
+      <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>160</v>
+      </c>
+      <c r="V35">
+        <v>15</v>
+      </c>
+      <c r="W35">
+        <v>16</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>180</v>
+      </c>
+      <c r="N36">
+        <v>11</v>
+      </c>
+      <c r="O36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>180</v>
+      </c>
+      <c r="V36">
+        <v>11</v>
+      </c>
+      <c r="W36">
+        <v>12</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f>I36</f>
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <f>H37+1</f>
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>180</v>
+      </c>
+      <c r="N37">
+        <f>O36</f>
+        <v>12</v>
+      </c>
+      <c r="O37">
+        <f>N37+1</f>
+        <v>13</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>180</v>
+      </c>
+      <c r="V37">
+        <f>W36</f>
+        <v>12</v>
+      </c>
+      <c r="W37">
+        <f>V37+1</f>
+        <v>13</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" ref="H38:H39" si="7">I37</f>
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:I39" si="8">H38+1</f>
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>180</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N39" si="9">O37</f>
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O39" si="10">N38+1</f>
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>180</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38:V39" si="11">W37</f>
+        <v>13</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ref="W38:W39" si="12">V38+1</f>
+        <v>14</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>180</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>180</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25090EDA-4FE4-4C5F-AAF6-FBD905FE7C50}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -2847,767 +6135,6 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A67A914-F1B3-4FDF-B188-2EC4E86FA79B}">
-  <dimension ref="A1:K39"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>8</v>
-      </c>
-      <c r="B1">
-        <v>14</v>
-      </c>
-      <c r="H1">
-        <v>17</v>
-      </c>
-      <c r="I1">
-        <f>COUNT(H2:H39)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>I2+1</f>
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>I3+1</f>
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I11" si="0">I4+1</f>
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>-2120</v>
-      </c>
-      <c r="K12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>-4340</v>
-      </c>
-      <c r="K14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H16">
-        <f>H14+1</f>
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
-      </c>
-      <c r="J16">
-        <v>-3200</v>
-      </c>
-      <c r="K16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H17">
-        <f t="shared" ref="H17:H31" si="1">H15+1</f>
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>11</v>
-      </c>
-      <c r="J18">
-        <v>-4950</v>
-      </c>
-      <c r="K18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>15</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <v>-1795</v>
-      </c>
-      <c r="K20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>13</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22">
-        <v>-2300</v>
-      </c>
-      <c r="K22">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>14</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <v>-3005</v>
-      </c>
-      <c r="K24">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <v>15</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I26">
-        <v>13</v>
-      </c>
-      <c r="J26">
-        <v>-1530</v>
-      </c>
-      <c r="K26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I27">
-        <v>14</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I28">
-        <v>13</v>
-      </c>
-      <c r="J28">
-        <v>-2130</v>
-      </c>
-      <c r="K28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I29">
-        <v>15</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>14</v>
-      </c>
-      <c r="J30">
-        <v>-2350</v>
-      </c>
-      <c r="K30">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>15</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H32">
-        <v>12</v>
-      </c>
-      <c r="I32">
-        <v>16</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H33">
-        <v>13</v>
-      </c>
-      <c r="I33">
-        <v>16</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H34">
-        <v>14</v>
-      </c>
-      <c r="I34">
-        <v>16</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H35">
-        <v>15</v>
-      </c>
-      <c r="I35">
-        <v>16</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H36">
-        <v>11</v>
-      </c>
-      <c r="I36">
-        <v>12</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H37">
-        <f>I36</f>
-        <v>12</v>
-      </c>
-      <c r="I37">
-        <f>H37+1</f>
-        <v>13</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H38">
-        <f t="shared" ref="H38:H39" si="2">I37</f>
-        <v>13</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ref="I38:I39" si="3">H38+1</f>
-        <v>14</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4985,8 +7512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FEEE44-2102-43CF-A291-2243BFACD17C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5703,7 +8230,7 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6371,6 +8898,299 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4C26DE-7328-4FC0-97A9-408B474FFF61}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1">
+        <f>C10+2</f>
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <f>COUNT(L2:L10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>B8+2</f>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>C8+2</f>
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:C10" si="0">B9+2</f>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393D2CD-809A-4FCA-B231-719FBB99240C}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -7512,794 +10332,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102DC9D0-CFC5-494B-B615-ED78A3EE9912}">
-  <dimension ref="A1:R31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2">
-        <f>SUMPRODUCT(C4:H9, C15:H20)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="2">
-        <f ca="1">SUMPRODUCT(C4:H9, C15:H20) + O4*OFFSET(B14, M7+1, M6+1)</f>
-        <v>7</v>
-      </c>
-      <c r="O4" s="2">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9">
-        <f ca="1">OFFSET(L14, M6+1, M7+1)</f>
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11">
-        <f ca="1" xml:space="preserve"> OFFSET(B14, M7+1, M6+1) + M9</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="L14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15:R20" si="0">INDEX($C$24:$H$24, MATCH(M$14, $C$23:$H$23, 0)) - INDEX($C$24:$H$24, MATCH($L15, $C$23:$H$23, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="L23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-      <c r="R23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ref="M24:R29" si="1">C15-M15</f>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>